--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>scripts</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mod</t>
         </is>
@@ -498,10 +503,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>cleric</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,12 +539,13 @@
           <t>1,0.5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>mage</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,10 +575,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>fertility,20 | recipe_speed,50,maid_recipe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>maid</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -597,10 +613,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>manipulation,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>paladin</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -630,10 +651,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>sight,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>ranger</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,10 +689,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>compliance,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>slave</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -696,10 +727,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>manipulation,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>soldier</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -729,10 +765,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>speech,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>hypnobat</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -762,10 +803,15 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>assassin</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -795,10 +841,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>fertility,20 | recipe_speed,50,tavern_recipe</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>waitress</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -828,10 +879,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>focus,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>vine_mage</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -861,10 +917,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>recipe_speed,50,dryad_recipe</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>wood_mage</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -894,10 +955,15 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>speech,20 | recipe_speed,50,overseer_recipe</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>songmage</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -923,10 +989,15 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>manipulation,20 | building_prod_speed,50,mine</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>barbarian</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -952,10 +1023,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>fertility,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>drain_mage</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -981,10 +1057,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>focus,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>electro_mage</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1010,10 +1091,15 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>manipulation,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>hunter</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1039,10 +1125,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>fertility,20 | recipe_speed,50,cow_recipe</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>milk_cow</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1068,10 +1159,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>moving,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>rogue</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1097,10 +1193,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>manipulation,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>sculptor</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1126,10 +1227,15 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>sharpshooter</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1155,10 +1261,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>manipulation,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>surgeon</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1188,10 +1299,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>move_speed,20 | initiative,1 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>mule</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1221,10 +1337,15 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>moving,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>siege_ram</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1254,10 +1375,15 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>focus,20 | recipe_speed,50,wool_recipe</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>wool_mage</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1287,10 +1413,15 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>IF:combat_terrain,snow | damage_bonus,1 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>ice_mage</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1320,10 +1451,15 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>moving,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>lancer</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1353,10 +1489,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>IF:combat_terrain,aphrodisiac | damage_bonus,1 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>love_mage</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1386,10 +1527,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>IF:combat_terrain,latex_pool | damage_bonus,1 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>latex_slime</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1419,10 +1565,15 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>fertility,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>love_slime</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1452,10 +1603,15 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>recipe_speed,50,metal_slime_recipe</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>metal_slime</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1485,10 +1641,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>focus,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>milk_slime</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1518,10 +1679,15 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>focus,25 | recipe_speed,50,silk_recipe</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>silk_mage</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1551,10 +1717,15 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>focus,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>druid</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1584,10 +1755,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>moving,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>feral</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1617,10 +1793,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>speech,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>pet</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1650,10 +1831,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>manipulation,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>heavy_warrior</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,10 +1871,15 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>IF:combat_terrain,snow | damage_reduction,1 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>shaved</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1720,10 +1911,15 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>prod_speed,25 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,10 +1951,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>move_speed,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>leaf_dancer</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,10 +1991,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>focus,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>pocket_healer</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,10 +2031,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>move_speed,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>prankster</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,10 +2071,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>fertility,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>breeder</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,10 +2111,15 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>move_speed,20 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>improviser</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,10 +2151,15 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>manipulation,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>scoundrel</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,10 +2191,15 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>ambusher</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,10 +2231,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>manipulation,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>opportunist</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2035,10 +2271,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>manipulation,10 | prod_speed,25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>underling</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>1</v>
       </c>
     </row>
